--- a/QC/Sure/Sure Automation/Documents/OTT Documents/Fraud Management.xlsx
+++ b/QC/Sure/Sure Automation/Documents/OTT Documents/Fraud Management.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24821"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E8D62A5637EC792652FA4F5A667F5A0CE912E7F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="249">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -562,6 +561,9 @@
     <t>prasuM@12345</t>
   </si>
   <si>
+    <t>click on okay button</t>
+  </si>
+  <si>
     <t>PageDataNo</t>
   </si>
   <si>
@@ -841,8 +843,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -859,12 +867,22 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,6 +890,142 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,22 +1035,202 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -904,42 +1238,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1287,12 +1904,12 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -1301,18 +1918,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
-    <col min="11" max="11" width="22.125" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="13.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="22.247619047619" customWidth="1"/>
+    <col min="4" max="4" width="48.8761904761905" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.247619047619" customWidth="1"/>
+    <col min="6" max="7" width="15.3714285714286" customWidth="1"/>
+    <col min="8" max="8" width="16.752380952381" customWidth="1"/>
+    <col min="9" max="9" width="19.3714285714286" customWidth="1"/>
+    <col min="10" max="10" width="22.3714285714286" customWidth="1"/>
+    <col min="11" max="11" width="22.1238095238095" customWidth="1"/>
+    <col min="12" max="12" width="18.247619047619" customWidth="1"/>
+    <col min="13" max="13" width="13.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1356,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" ht="45" spans="3:4">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" ht="45" spans="3:4">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90">
+    <row r="4" ht="90" spans="3:4">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30">
+    <row r="5" ht="30" spans="3:4">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +2005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -1534,7 +2151,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" ht="30" spans="1:13">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1559,31 +2176,34 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="D1:D6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="D1:D6">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.247619047619" customWidth="1"/>
+    <col min="2" max="2" width="9.75238095238095" customWidth="1"/>
+    <col min="3" max="3" width="31.247619047619" customWidth="1"/>
+    <col min="4" max="4" width="38.247619047619" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.247619047619" customWidth="1"/>
+    <col min="6" max="6" width="20.6285714285714" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="15.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1612,12 +2232,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" ht="30" spans="3:4">
       <c r="C3" t="s">
         <v>52</v>
       </c>
@@ -1625,12 +2245,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
+    <row r="5" ht="45" spans="3:4">
       <c r="C5" t="s">
         <v>55</v>
       </c>
@@ -1638,7 +2258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60">
+    <row r="6" ht="60" spans="3:4">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -1646,7 +2266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60">
+    <row r="7" ht="60" spans="3:4">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +2274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
+    <row r="8" ht="60" spans="3:4">
       <c r="C8" t="s">
         <v>60</v>
       </c>
@@ -1662,7 +2282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" ht="60" spans="3:4">
       <c r="C9" t="s">
         <v>62</v>
       </c>
@@ -1670,7 +2290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="3:4">
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1678,7 +2298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="105">
+    <row r="11" ht="105" spans="3:4">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +2306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
         <v>68</v>
       </c>
@@ -1694,7 +2314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="3:4">
       <c r="C13" t="s">
         <v>70</v>
       </c>
@@ -1702,7 +2322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="90">
+    <row r="14" ht="90" spans="3:4">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -1710,7 +2330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="105">
+    <row r="15" ht="105" spans="3:4">
       <c r="C15" t="s">
         <v>74</v>
       </c>
@@ -1718,7 +2338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75">
+    <row r="16" ht="75" spans="3:4">
       <c r="C16" t="s">
         <v>76</v>
       </c>
@@ -1803,7 +2423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +2440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +2457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1854,7 +2474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1945,7 +2565,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1976,7 +2596,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2029,7 +2649,7 @@
       <c r="E40" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2069,11 +2689,11 @@
       <c r="E42" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2087,7 +2707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2101,7 +2721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2118,7 +2738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2135,7 +2755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2786,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -2219,7 +2839,7 @@
       <c r="E53" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2259,11 +2879,11 @@
       <c r="E55" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -2277,7 +2897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -2291,7 +2911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -2325,7 +2945,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2976,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2409,7 +3029,7 @@
       <c r="E66" t="s">
         <v>107</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2449,11 +3069,11 @@
       <c r="E68" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +3087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +3101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +3118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2569,7 +3189,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +3206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2617,7 +3237,7 @@
         <v>128</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="5">
+      <c r="F80" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2641,7 +3261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1">
+    <row r="82" customHeight="1" spans="1:6">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2693,7 +3313,7 @@
         <v>128</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="5">
+      <c r="F84" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2789,7 +3409,7 @@
         <v>128</v>
       </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="5">
+      <c r="F89" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2882,7 +3502,7 @@
         <v>128</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="5">
+      <c r="F94" s="6">
         <v>205</v>
       </c>
     </row>
@@ -2962,7 +3582,7 @@
       <c r="E98" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2984,7 +3604,7 @@
       </c>
       <c r="F99" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -3015,7 +3635,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -3068,7 +3688,7 @@
       <c r="E106" t="s">
         <v>107</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3108,11 +3728,11 @@
       <c r="E108" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -3126,7 +3746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -3140,7 +3760,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3157,7 +3777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -3168,7 +3788,7 @@
         <v>52</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
         <v>117</v>
@@ -3177,52 +3797,53 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1" tooltip="mailto:prasanna@mail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F42" r:id="rId2" tooltip="mailto:prasu@12345" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F53" r:id="rId3" tooltip="mailto:prasanna@mail.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F55" r:id="rId4" tooltip="mailto:prasu@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F66" r:id="rId5" tooltip="mailto:prasanna@mail.com" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F68" r:id="rId6" tooltip="mailto:prasu@12345" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F106" r:id="rId7" tooltip="mailto:prasanna@mail.com" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F108" r:id="rId8" tooltip="mailto:prasuM@12345" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F40" r:id="rId1" display="prasanna@mail.com" tooltip="mailto:prasanna@mail.com"/>
+    <hyperlink ref="F42" r:id="rId2" display="prasu@12345" tooltip="mailto:prasu@12345"/>
+    <hyperlink ref="F53" r:id="rId1" display="prasa@mail.com" tooltip="mailto:prasanna@mail.com"/>
+    <hyperlink ref="F55" r:id="rId2" display="prasu@12345" tooltip="mailto:prasu@12345"/>
+    <hyperlink ref="F66" r:id="rId1" display="prasa@mail.com" tooltip="mailto:prasanna@mail.com"/>
+    <hyperlink ref="F68" r:id="rId2" display="prasu@12345" tooltip="mailto:prasu@12345"/>
+    <hyperlink ref="F106" r:id="rId1" display="prasaM@mail.com" tooltip="mailto:prasanna@mail.com"/>
+    <hyperlink ref="F108" r:id="rId3" display="prasuM@12345" tooltip="mailto:prasuM@12345"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="40.25" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="17" max="17" width="23.625" customWidth="1"/>
-    <col min="38" max="38" width="11.75" customWidth="1"/>
-    <col min="49" max="49" width="19.375" customWidth="1"/>
-    <col min="50" max="50" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="18.8761904761905" customWidth="1"/>
+    <col min="2" max="2" width="40.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="22.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="25.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="19.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="27.752380952381" customWidth="1"/>
+    <col min="11" max="11" width="17.8761904761905" customWidth="1"/>
+    <col min="12" max="12" width="13.752380952381" customWidth="1"/>
+    <col min="13" max="13" width="19.1238095238095" customWidth="1"/>
+    <col min="17" max="17" width="23.6285714285714" customWidth="1"/>
+    <col min="38" max="38" width="11.752380952381" customWidth="1"/>
+    <col min="49" max="49" width="19.3714285714286" customWidth="1"/>
+    <col min="50" max="50" width="26.6285714285714" customWidth="1"/>
     <col min="51" max="51" width="21" customWidth="1"/>
-    <col min="52" max="52" width="36.375" customWidth="1"/>
-    <col min="53" max="53" width="18.625" customWidth="1"/>
+    <col min="52" max="52" width="36.3714285714286" customWidth="1"/>
+    <col min="53" max="53" width="18.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>48</v>
@@ -3230,270 +3851,271 @@
     </row>
     <row r="2" spans="1:73">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AI2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AJ2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AT2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AU2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AV2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AW2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AX2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AY2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AZ2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BA2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BB2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BC2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BD2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BE2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BF2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BG2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BH2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BI2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BJ2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BK2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BL2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BM2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BN2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BO2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BP2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BQ2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BR2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BS2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BT2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BU2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="12.247619047619" customWidth="1"/>
+    <col min="2" max="2" width="13.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="7.87619047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3517,72 +4139,74 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.24761904761905" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="23.752380952381" customWidth="1"/>
+    <col min="4" max="4" width="19.247619047619" customWidth="1"/>
+    <col min="5" max="6" width="13.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="20.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="12.752380952381" customWidth="1"/>
+    <col min="3" max="3" width="21.6285714285714" customWidth="1"/>
+    <col min="4" max="4" width="12.8761904761905" customWidth="1"/>
+    <col min="6" max="6" width="12.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3593,49 +4217,50 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="11.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="11.1238095238095" customWidth="1"/>
+    <col min="5" max="5" width="14.8761904761905" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3652,24 +4277,25 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="11.3714285714286" customWidth="1"/>
+    <col min="2" max="2" width="15.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3677,13 +4303,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>